--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/additive/plate_1/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.408</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.194</v>
+        <v>19.548</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.115</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.038</v>
+        <v>24.454</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.972</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.267</v>
+        <v>17.934</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.2314462614461</v>
+        <v>-11.30630074253665</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.25458161921984</v>
+        <v>21.52854033741803</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.39206718044379</v>
+        <v>28.16438324057995</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.0374500427083</v>
+        <v>0.3745113019101858</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.40590213326137</v>
+        <v>12.84464972816127</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.40762083703797</v>
+        <v>19.31608952362674</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.18616617447852</v>
+        <v>13.34704020376628</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.71109403490976</v>
+        <v>18.53337351817882</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.63132075955077</v>
+        <v>24.17525128944524</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.2390238599887</v>
+        <v>26.0911901110035</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.2753056300632</v>
+        <v>33.23558935699899</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.26505302676905</v>
+        <v>37.3393337602279</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.50019813822004</v>
+        <v>8.840971558744538</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.33889198810973</v>
+        <v>26.6474350571498</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.82533829998875</v>
+        <v>34.3666758160073</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.01302541233408</v>
+        <v>-8.190222406774499</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.23529731152892</v>
+        <v>24.64908320473048</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.33114580579269</v>
+        <v>31.28677213984318</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>27.89510588430554</v>
+        <v>3.486335335105107</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.07790388180005</v>
+        <v>15.96024839117754</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.13758144805399</v>
+        <v>22.4332863023034</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>27.88956904792753</v>
+        <v>16.46267828330897</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.1877962851254</v>
+        <v>21.65210662590257</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.29649495382572</v>
+        <v>-3.627697313997235</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.44070049119173</v>
+        <v>29.20788182481558</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.48026339020648</v>
+        <v>35.84371301548859</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.01899021410682</v>
+        <v>8.054507225327395</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.57110319800692</v>
+        <v>20.52516729781624</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.51798153466097</v>
+        <v>26.99658362513346</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.19814731920254</v>
+        <v>21.02750973285506</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.84563933327687</v>
+        <v>26.21424570050536</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.77237035600022</v>
+        <v>31.85609917647119</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.76862711830889</v>
+        <v>33.77247857558282</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.92654900552569</v>
+        <v>40.91698858176474</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.93564094086463</v>
+        <v>45.02076791553012</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.66847534021234</v>
+        <v>16.52163080839537</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.82179101256813</v>
+        <v>34.32874470455536</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.8744292519788</v>
+        <v>42.04794907951114</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.15518625581948</v>
+        <v>-0.5099820480475934</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.45353834696135</v>
+        <v>32.33006170457136</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.55165179476721</v>
+        <v>38.96773896496271</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>27.83382617457936</v>
+        <v>11.16796834244817</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.50993998184459</v>
+        <v>23.6424031154759</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.60210491034728</v>
+        <v>30.11541758806097</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>27.88892118030218</v>
+        <v>24.14478500793885</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.69621595967863</v>
+        <v>29.33461606292897</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.07122550380653</v>
+        <v>0.04127160142288844</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.37810737220108</v>
+        <v>32.87697093249679</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.41951960354474</v>
+        <v>39.51283106473355</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.92642955298993</v>
+        <v>11.72402375666482</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.49609001786597</v>
+        <v>24.19484311639067</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.60061806410168</v>
+        <v>30.66628457281163</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.09572593445924</v>
+        <v>24.69711865572597</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.85420896652307</v>
+        <v>29.88400769961927</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.8538518687239</v>
+        <v>35.52588305346652</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.81118669079447</v>
+        <v>37.44224725620884</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.85908203677306</v>
+        <v>44.58676092336967</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.95150989718731</v>
+        <v>48.69056972014803</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.17810572107808</v>
+        <v>20.19122563280021</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.43568453312236</v>
+        <v>37.99852936375251</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.84642881753247</v>
+        <v>45.71775529697825</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.08908951100896</v>
+        <v>3.159668389344485</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.30867464284783</v>
+        <v>35.99983234375046</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.56803847763569</v>
+        <v>42.63753855031464</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.7798380168721</v>
+        <v>14.83816646929793</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.17300161943923</v>
+        <v>27.31276054076491</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.58590083341441</v>
+        <v>33.78580014419074</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>27.92596365771372</v>
+        <v>27.81507554499754</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.38517254066182</v>
+        <v>33.0050596867458</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>27.99787316789489</v>
+        <v>-7.378037158246091</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.21181426433495</v>
+        <v>25.45716093583931</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.2729756625075</v>
+        <v>32.09314332201566</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.94820827277232</v>
+        <v>4.303627321358046</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.497475997373</v>
+        <v>16.77409798812473</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.53568992704676</v>
+        <v>23.24567068874958</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.99606122775798</v>
+        <v>17.27628254072888</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.71724295816227</v>
+        <v>22.46290356637271</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.68614172363511</v>
+        <v>28.10489820773048</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.69952382650274</v>
+        <v>30.02073851340097</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.76879799669164</v>
+        <v>37.16517572306921</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.83692564919586</v>
+        <v>41.26902694764581</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.04949994027292</v>
+        <v>12.77014057028205</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.27385067832695</v>
+        <v>30.57702245253281</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.69940457308626</v>
+        <v>38.29640673716361</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.00548282645399</v>
+        <v>-4.261096800138805</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.31609846033518</v>
+        <v>28.57856585466189</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.47694072916151</v>
+        <v>35.21639429528264</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.81148397267912</v>
+        <v>7.416313446070856</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.26851618766579</v>
+        <v>19.89055877456283</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.48859427508805</v>
+        <v>26.36372960441238</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>27.84004091942075</v>
+        <v>20.39278274923404</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.41004700927807</v>
+        <v>25.58249883202475</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.22619243532385</v>
+        <v>27.29534865368421</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.20544640344396</v>
+        <v>29.21170818940677</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.49905080015397</v>
+        <v>36.35859011066626</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.61578496466883</v>
+        <v>40.46334177442546</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.03576486298939</v>
+        <v>11.95963720989746</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.2199894661853</v>
+        <v>29.77128364706098</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.33827784346667</v>
+        <v>37.49198592395979</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.11836883030813</v>
+        <v>2.044857541054991</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.30024601718768</v>
+        <v>34.88561406571708</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.50623997774434</v>
+        <v>41.52438315518239</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.81199132628624</v>
+        <v>13.72424899184514</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.03645474459087</v>
+        <v>26.19974804013171</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.10201222724956</v>
+        <v>32.67389469927608</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>27.93639454123398</v>
+        <v>26.70271357996583</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.25428371358886</v>
+        <v>31.89359153552905</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.46919778727133</v>
+        <v>37.53782780922282</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.23534064258542</v>
+        <v>39.45617189761347</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.69037313383068</v>
+        <v>46.60398100055014</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.67060945689522</v>
+        <v>50.70931267646884</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>27.94088625286427</v>
+        <v>22.2017618445349</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.19219398066864</v>
+        <v>40.01527627067279</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.29734531127301</v>
+        <v>47.73721068224202</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.86127291787546</v>
+        <v>34.97783381983814</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.64229465327909</v>
+        <v>36.89463388963625</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.92868065398795</v>
+        <v>44.04162657808288</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.1138745331587</v>
+        <v>48.14641319576859</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.16056232223159</v>
+        <v>19.64193364674932</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.78201850069287</v>
+        <v>37.45423057771202</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.7906166163015</v>
+        <v>45.17489649627421</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.25480157830122</v>
+        <v>9.726131375456614</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.57513190171035</v>
+        <v>42.56762605960651</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.86292241740896</v>
+        <v>49.20638344760883</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>27.89752784630996</v>
+        <v>21.40691560278597</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.68478472569834</v>
+        <v>33.88293638072824</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.9195609511626</v>
+        <v>40.35705957686983</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.05884394729762</v>
+        <v>34.38585394410111</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.07700604360203</v>
+        <v>39.57713462195332</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.46126966409765</v>
+        <v>45.22134660319617</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.00287467045993</v>
+        <v>47.14013124166993</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.39937973302499</v>
+        <v>54.28805111738873</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.61435730332374</v>
+        <v>58.3934177312988</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.59490221777649</v>
+        <v>29.88509190674077</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.2727801441502</v>
+        <v>47.69925683568627</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.40647204029493</v>
+        <v>55.42115487043819</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.98128075359412</v>
+        <v>38.64829932278727</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.48405573601787</v>
+        <v>40.5650841447962</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.6677934850256</v>
+        <v>47.71208048301335</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.95919307165948</v>
+        <v>51.81689656655604</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>27.98954060836944</v>
+        <v>23.31221004748081</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.5466874207214</v>
+        <v>41.12469682491079</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.68107268013952</v>
+        <v>48.8453843038059</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.23373614664597</v>
+        <v>13.39622680284813</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.48633217161398</v>
+        <v>46.23784169229228</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.87251661519111</v>
+        <v>52.87662800994124</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.81645793043052</v>
+        <v>25.07755874628483</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.44842820393803</v>
+        <v>37.55373882451627</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.85272215204948</v>
+        <v>44.02788713755038</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.12184119703089</v>
+        <v>38.05658950885325</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.85335974607385</v>
+        <v>43.24802327483772</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.45999843357129</v>
+        <v>48.89225712324654</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.98547121672274</v>
+        <v>50.81102650887684</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.17893012640896</v>
+        <v>57.95895003309332</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.56260523524303</v>
+        <v>62.06434610710633</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.08510093099337</v>
+        <v>33.55581331113959</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.81618770999352</v>
+        <v>51.37016808531328</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.18338016243818</v>
+        <v>59.0920876682616</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.72978765496113</v>
+        <v>31.22585774036602</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.27295912514904</v>
+        <v>33.14211867489374</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.41062904282898</v>
+        <v>40.28903854992976</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.60630568388422</v>
+        <v>44.39389704730971</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.89874918486154</v>
+        <v>15.88966831591599</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.41224134016268</v>
+        <v>33.70173317679533</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.57026081009628</v>
+        <v>41.42257899330642</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.06468525368949</v>
+        <v>5.974842926688009</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.47971310327321</v>
+        <v>38.81595651207968</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.90306351839529</v>
+        <v>45.45486508678792</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.77054574129906</v>
+        <v>17.65508694974872</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.37138542912326</v>
+        <v>30.13091828527709</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.96245208885906</v>
+        <v>36.60519784898693</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>27.89255896898241</v>
+        <v>30.6336779264424</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.70104562842138</v>
+        <v>35.82484363494078</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.40176264121835</v>
+        <v>41.46919677777603</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.70318812906842</v>
+        <v>43.38744226881275</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.99923265445545</v>
+        <v>50.53528933101987</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.54219810938973</v>
+        <v>54.64072783684745</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>27.89004432406981</v>
+        <v>26.13265279864666</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.55907556903905</v>
+        <v>43.94658566148726</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.24015903439744</v>
+        <v>51.6686636015086</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.248110815662</v>
+        <v>-10.33440455914783</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22.73755844269316</v>
+        <v>22.49996133649986</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.33619073575656</v>
+        <v>29.13495077981716</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>15.59312532620903</v>
+        <v>1.34556201110345</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.40347161048194</v>
+        <v>13.81542339092678</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.17374685376639</v>
+        <v>20.28607653614543</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.78567425489806</v>
+        <v>14.31844869704664</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.689152204031</v>
+        <v>19.50459975422805</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.25898186290331</v>
+        <v>25.14579864934549</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>21.45551994441827</v>
+        <v>27.0615144251424</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>23.87063874305045</v>
+        <v>34.20580925741515</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>24.01666433929644</v>
+        <v>38.30900887117608</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.10583092484688</v>
+        <v>9.81161959963438</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20.87490701289135</v>
+        <v>27.61764326095615</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.30147685231904</v>
+        <v>35.3359599572955</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.04088048607478</v>
+        <v>-7.215149965994303</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.94447687399978</v>
+        <v>25.6236806491278</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.654423339518</v>
+        <v>32.26051585037786</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16.55720657733888</v>
+        <v>4.460562389184499</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.70248553805773</v>
+        <v>16.93419852144578</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>21.98076041022357</v>
+        <v>23.40644956405847</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.8770894508588</v>
+        <v>17.43726343392941</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>24.64389460822812</v>
+        <v>22.62650961522482</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>22.77419056629515</v>
+        <v>-2.656420297583711</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.03568185601478</v>
+        <v>30.17868364543895</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.72180764907307</v>
+        <v>36.81366136851139</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>14.72506115314577</v>
+        <v>9.02493872020457</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.07143447508479</v>
+        <v>21.49532173736761</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.42157565712886</v>
+        <v>27.96595140907359</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>17.71432803301711</v>
+        <v>21.99829898053101</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>31.38589371740418</v>
+        <v>27.18485268340671</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.76992365433523</v>
+        <v>32.82602727864403</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.55542819802706</v>
+        <v>34.74218363303001</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.82163639554005</v>
+        <v>41.88658922497748</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.97396364253799</v>
+        <v>45.98982376723089</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>26.23422354784316</v>
+        <v>17.49165961750432</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.9102350594389</v>
+        <v>35.29833366793358</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.66614228813223</v>
+        <v>43.01661397398564</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>22.62217098915371</v>
+        <v>0.4644712481966984</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.7968731053923</v>
+        <v>33.30403999204773</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.26940341161174</v>
+        <v>39.94086351101603</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>16.21568440128282</v>
+        <v>12.14157620372717</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.41497160414254</v>
+        <v>24.61573404400317</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.40022688348469</v>
+        <v>31.08796164285198</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>17.19919585866997</v>
+        <v>25.11875093377901</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>33.87361705516531</v>
+        <v>30.30839982022306</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>18.33982800856847</v>
+        <v>1.012292452907015</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.42032828334653</v>
+        <v>33.84751658426811</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.41199052623341</v>
+        <v>40.48252324847934</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>13.76762162575243</v>
+        <v>12.69419907730699</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>24.74918561100384</v>
+        <v>25.16474137805883</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.12257206819839</v>
+        <v>31.63539617843437</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>17.42926805633994</v>
+        <v>25.66765171167142</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>31.62128797841203</v>
+        <v>30.85435848778095</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>32.2801616123478</v>
+        <v>36.49555496094743</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>32.8428079399593</v>
+        <v>38.41169612865522</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.86063039444652</v>
+        <v>45.55610538032752</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>36.699499048262</v>
+        <v>49.65936938566747</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.71623319369726</v>
+        <v>21.16099826344694</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.29404662274575</v>
+        <v>38.96786214579052</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.55244763199399</v>
+        <v>46.68616400831959</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>20.59783961126386</v>
+        <v>4.133865506294139</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.65914991907337</v>
+        <v>36.97355444860298</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>30.09974758457615</v>
+        <v>43.61040691349083</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>15.19119148315853</v>
+        <v>15.8115181418739</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.49276630064208</v>
+        <v>28.28583527727985</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.92490205073173</v>
+        <v>34.75808800652285</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>19.91593518935807</v>
+        <v>28.7887852655264</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.29069191934056</v>
+        <v>33.97858723570496</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>17.25710453608534</v>
+        <v>-6.406567022020315</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.63023299307638</v>
+        <v>26.42815587669659</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.23830674565475</v>
+        <v>33.06328479767799</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>15.34221210368827</v>
+        <v>5.274251969307127</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>23.59459794066025</v>
+        <v>17.74444557912434</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.31002922565111</v>
+        <v>24.21523162434871</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15.63230574507052</v>
+        <v>18.24726494526706</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>27.56701000039716</v>
+        <v>23.43370370437551</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.02072267265644</v>
+        <v>29.07501946526545</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.80722424745516</v>
+        <v>30.99063675199639</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>27.61835534095555</v>
+        <v>38.13496954449525</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>30.34076549406823</v>
+        <v>42.23827597673235</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>18.3693964753667</v>
+        <v>13.74036254724424</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>22.67394899371099</v>
+        <v>31.54680458226462</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.79714266582263</v>
+        <v>39.26526479552027</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>18.31460471321498</v>
+        <v>-3.28645041019249</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.65489207866943</v>
+        <v>29.552737237412</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.52678051200895</v>
+        <v>36.18971193861333</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>15.33125463872492</v>
+        <v>8.39011443469192</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>26.90569533163617</v>
+        <v>20.86408282932271</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.8421874452182</v>
+        <v>27.33646678555524</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>17.33136340240418</v>
+        <v>21.36694180695397</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.89340101943299</v>
+        <v>26.55647571933721</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.75617000232027</v>
+        <v>28.26907258641031</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.48968189405461</v>
+        <v>30.18520903975016</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.96259851594115</v>
+        <v>37.33198658017764</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>31.30180291526818</v>
+        <v>41.43619329436686</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.71073709149791</v>
+        <v>12.93346176650075</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.13994985592035</v>
+        <v>30.74466843010205</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.76800111651607</v>
+        <v>38.46444643055773</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>21.70523343441697</v>
+        <v>3.02231040413599</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.89826720294921</v>
+        <v>35.86259199268662</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.85112705057017</v>
+        <v>42.50050733517244</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>15.16263865815903</v>
+        <v>14.70085629058169</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.26983500145055</v>
+        <v>27.17607846930164</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>20.35035254532681</v>
+        <v>33.64943828294761</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>17.91725370931419</v>
+        <v>27.6796791243178</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.44133314155601</v>
+        <v>32.87037496500923</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.57859096990497</v>
+        <v>38.51393221320498</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.78132131113344</v>
+        <v>40.4320530352592</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>35.85421119687843</v>
+        <v>47.57975775640367</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.45596050089078</v>
+        <v>51.68454452419658</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>19.98234061518314</v>
+        <v>23.17796669485315</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.58918551740014</v>
+        <v>40.99104141819433</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>27.59433289377696</v>
+        <v>48.71205156028137</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.84322895445636</v>
+        <v>35.95093851623952</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>35.27139413325563</v>
+        <v>37.86751550498437</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>39.9608613427906</v>
+        <v>45.01440381242074</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>41.11194390729446</v>
+        <v>49.11864547839244</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>24.90793849799818</v>
+        <v>20.61513899295155</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>37.74340745272254</v>
+        <v>38.42699614210599</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35.93908626169828</v>
+        <v>46.14673777778901</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.52681424617757</v>
+        <v>10.70296510223923</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>31.98321902169968</v>
+        <v>43.54398483811784</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>35.5628023685118</v>
+        <v>50.18188847123477</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>15.8065012061886</v>
+        <v>22.38290371691189</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.58083974452111</v>
+        <v>34.85864761613826</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.64283982497144</v>
+        <v>41.3319839615929</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>17.97315240955196</v>
+        <v>35.36220027236848</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>41.6087497063569</v>
+        <v>40.5532988277362</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>45.30371808526465</v>
+        <v>46.19683177934147</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>44.94876355372519</v>
+        <v>48.11539315313874</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>52.32658374286162</v>
+        <v>55.26320864618916</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>53.7616540964313</v>
+        <v>59.36803035012272</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>33.82649144102112</v>
+        <v>30.86067755450304</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>49.82147147859813</v>
+        <v>48.67440277279277</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>51.07879641685544</v>
+        <v>56.39537653149867</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>41.03963353625522</v>
+        <v>39.62114781059782</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>35.68424741665635</v>
+        <v>41.53770956185522</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40.02687813667794</v>
+        <v>48.68460151770549</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.99545526819934</v>
+        <v>52.78887264951382</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.53898462263874</v>
+        <v>24.28515920094858</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.67261768317672</v>
+        <v>42.09720619332521</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>39.84779681281771</v>
+        <v>49.81696938851499</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.98957218784806</v>
+        <v>14.37280435057917</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.45011051810229</v>
+        <v>47.2139442883595</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.58400773762315</v>
+        <v>53.85187685087467</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.78964775819693</v>
+        <v>26.05329067266828</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.29528243046638</v>
+        <v>38.5291938687574</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>37.12120094756825</v>
+        <v>45.00255533058024</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>21.86270197429936</v>
+        <v>39.03267963224474</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>42.7666552420006</v>
+        <v>44.2239312726056</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>49.88435715627938</v>
+        <v>49.86748609108523</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>49.95232580194248</v>
+        <v>51.78603222178518</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>54.97023932337544</v>
+        <v>58.93385136207203</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>56.36458812134125</v>
+        <v>63.03870252589982</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>24.85250911860853</v>
+        <v>34.53114276656189</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>47.30866323430281</v>
+        <v>52.3450578271634</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>50.92589802947633</v>
+        <v>60.06605313307287</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>38.31946591265126</v>
+        <v>32.19915556659467</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.84835556029347</v>
+        <v>34.11519344609806</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.44038180100748</v>
+        <v>41.262008937042</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.32423504802927</v>
+        <v>45.36632248199763</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.03144412133887</v>
+        <v>16.86306680434759</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.19968172665759</v>
+        <v>34.67469188178828</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>38.43539401320252</v>
+        <v>42.39461341322445</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>19.69372594426459</v>
+        <v>6.951869755079795</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.16180588275265</v>
+        <v>39.79250839328395</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.6389529567423</v>
+        <v>46.43056321538441</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>15.60082253695521</v>
+        <v>18.63126819962249</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>32.78941508804095</v>
+        <v>31.10682265547657</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>39.12770512004951</v>
+        <v>37.58031536844706</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>18.770739537552</v>
+        <v>31.6102173947726</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>40.32710985415958</v>
+        <v>36.80120097895772</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>49.20242914332147</v>
+        <v>42.44487509192666</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>42.99901749121362</v>
+        <v>44.36289734393668</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.20473482881419</v>
+        <v>51.51064002056856</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>55.35466208335237</v>
+        <v>55.615533615175</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>21.12456455646331</v>
+        <v>27.10843159678361</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>42.39462207639708</v>
+        <v>44.92192474720346</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>50.96944402090766</v>
+        <v>52.64307840882591</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.63960536903608</v>
+        <v>-10.26939841928786</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.99060273138099</v>
+        <v>22.56515644808476</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.42702748120194</v>
+        <v>29.20012217420131</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>16.00740110466131</v>
+        <v>1.410531462254564</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.0679224676206</v>
+        <v>13.88049606820723</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>20.50818602211297</v>
+        <v>20.35112710222293</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>17.84745911249008</v>
+        <v>14.38350655510183</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.84101163215789</v>
+        <v>19.56972331724787</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.24788196105388</v>
+        <v>25.21090330251561</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>21.58014587909845</v>
+        <v>27.12679154514833</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>23.99523455356976</v>
+        <v>34.27114413913526</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.17864165182252</v>
+        <v>38.37430128894189</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>22.95368486634723</v>
+        <v>9.87672397809504</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>20.85014844741117</v>
+        <v>27.68290263260124</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.27189800691017</v>
+        <v>35.40118487349687</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>20.12279688655458</v>
+        <v>-7.147524943570122</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.56658396561889</v>
+        <v>25.69149473548557</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.39829603909707</v>
+        <v>32.3283062177824</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>16.78967176708039</v>
+        <v>4.52815090493041</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>20.53526595795997</v>
+        <v>17.00189034210157</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.5525438520603</v>
+        <v>23.47411927091994</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>17.93254368514608</v>
+        <v>17.50494046440863</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>24.13003844188498</v>
+        <v>22.69425241793558</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.05757512107889</v>
+        <v>-2.591376536308733</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>24.98770514271925</v>
+        <v>30.24391638354293</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.76286932646808</v>
+        <v>36.87887038795819</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>15.06714746167119</v>
+        <v>9.089945800412831</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.85749233995239</v>
+        <v>21.56043204844755</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.14605333671131</v>
+        <v>28.03103960750061</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>17.99834393513387</v>
+        <v>22.06339446858365</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.0390215601683</v>
+        <v>27.25001388086369</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.46179640430276</v>
+        <v>32.89116956528258</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>31.34506580945933</v>
+        <v>34.80749838849457</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>35.5895314467163</v>
+        <v>41.95196174378091</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.59150639224929</v>
+        <v>46.0551538210714</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.23365159522395</v>
+        <v>17.5568016261557</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>32.85403058218341</v>
+        <v>35.36363067557434</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>33.22948969347421</v>
+        <v>43.08187652505788</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>22.42617534519163</v>
+        <v>0.5321339170798431</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>27.58641677420933</v>
+        <v>33.37189173020627</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.07729744732289</v>
+        <v>40.00869152865656</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>16.76081278605345</v>
+        <v>12.20920237314411</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>27.92944083197554</v>
+        <v>24.68346352321717</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>27.98680640488607</v>
+        <v>31.155669006993</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>17.40249692330461</v>
+        <v>25.18646561970277</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>31.92894860550174</v>
+        <v>30.37618028237503</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.10469646149552</v>
+        <v>1.07735779847226</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>23.9333041161278</v>
+        <v>33.9127709075639</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.14795396174348</v>
+        <v>40.5477538533145</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.1439981632557</v>
+        <v>12.75922774572134</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>24.64883453048175</v>
+        <v>25.22987327852209</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.76485402729702</v>
+        <v>31.70050596631748</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>17.67596660262087</v>
+        <v>25.73276878819322</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>31.32079426076459</v>
+        <v>30.91954127453792</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.93958120360725</v>
+        <v>36.56071883700659</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.62481677468591</v>
+        <v>38.47703247189227</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>34.96318063262842</v>
+        <v>45.62149948761933</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>36.45352736203578</v>
+        <v>49.72472102830162</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.45694338290625</v>
+        <v>21.22616185915129</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>30.47350416229562</v>
+        <v>39.03318074138375</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>32.54774347226112</v>
+        <v>46.75144814772526</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>20.83736602862355</v>
+        <v>4.201549755558997</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.05322764110767</v>
+        <v>37.04142776789004</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.31133855217328</v>
+        <v>43.67825651240381</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>15.73881973757502</v>
+        <v>15.87916589565546</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.52360619158796</v>
+        <v>28.35358634175023</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.52418359376813</v>
+        <v>34.82581695589388</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>20.3044451112579</v>
+        <v>28.85652153513061</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>32.07007254432055</v>
+        <v>34.04638928269858</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>17.96971533816108</v>
+        <v>-6.341525124297252</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>19.55334882062726</v>
+        <v>26.49338674777405</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.50097131808401</v>
+        <v>33.12849195187667</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>15.68587448282363</v>
+        <v>5.339257182837084</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.92822304139654</v>
+        <v>17.80955402097927</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.77488171097579</v>
+        <v>24.28031795517463</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.92790838174081</v>
+        <v>18.31235856656658</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.56724826796027</v>
+        <v>23.49886303282133</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.46989486046802</v>
+        <v>29.14015988411952</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.3194395851184</v>
+        <v>31.05594963604952</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.20080165091245</v>
+        <v>38.20034019083099</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.10679510968668</v>
+        <v>42.30360415903024</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>19.33005764350803</v>
+        <v>13.80550268757761</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>23.49297424408002</v>
+        <v>31.61209971781639</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>32.50993845460358</v>
+        <v>39.33052547610887</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>18.44061239332513</v>
+        <v>-3.218789621018093</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.89338191509557</v>
+        <v>29.62058709193084</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.60990960693301</v>
+        <v>36.25753807451602</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>15.84202229438289</v>
+        <v>8.457738721029866</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.96394199198426</v>
+        <v>20.93181042258314</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.379270549396</v>
+        <v>27.40417226522041</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>17.56370212042828</v>
+        <v>21.43465460918551</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.51322872693684</v>
+        <v>26.62425429557109</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.0851147629504</v>
+        <v>28.33679647666261</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.76607952254399</v>
+        <v>30.25310531667131</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.31051251155934</v>
+        <v>37.39994064775399</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.59827451510086</v>
+        <v>41.5041048832376</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.49846219460846</v>
+        <v>13.00118521537913</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.53427817196195</v>
+        <v>30.81254695707687</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.9030921173312</v>
+        <v>38.5322905018601</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>21.93029957649545</v>
+        <v>3.089708346655382</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.72258159700187</v>
+        <v>35.93017901182364</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.53320842428076</v>
+        <v>42.56807063876616</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>15.81331923714707</v>
+        <v>14.76821771084431</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>19.32061430739373</v>
+        <v>27.24354320787202</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.92869090048306</v>
+        <v>33.71688091700119</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>18.11574047663736</v>
+        <v>27.74712905470463</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>23.98718884640055</v>
+        <v>32.93789068004779</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.61623884076837</v>
+        <v>38.58142902598209</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.13396768008403</v>
+        <v>40.49972222650902</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.31678709142615</v>
+        <v>47.64748474325646</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>36.54487969501231</v>
+        <v>51.75222903917987</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>19.99373547258102</v>
+        <v>23.24546304750347</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.00690131437586</v>
+        <v>41.05869286077123</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.72283105460958</v>
+        <v>48.77966855463947</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.02264926128554</v>
+        <v>36.01870006499885</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>33.09076616516035</v>
+        <v>37.93544944180874</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>38.08385091079852</v>
+        <v>45.08239554180616</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.51395503978895</v>
+        <v>49.18659472832897</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>24.71536803214811</v>
+        <v>20.68290009720138</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.16097510125635</v>
+        <v>38.49491233004542</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.00399875586377</v>
+        <v>46.21461950886081</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>24.5186472237625</v>
+        <v>10.77040069267391</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.01863429145994</v>
+        <v>43.61160951061564</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.08931440041265</v>
+        <v>50.24948942665517</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>16.25470296621287</v>
+        <v>22.45030279255357</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>32.04386056755945</v>
+        <v>34.92615001515006</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.50592858271463</v>
+        <v>41.39946425475742</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>18.12827051830204</v>
+        <v>35.42968785970473</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>39.66605996732876</v>
+        <v>40.62085220391728</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>44.04350092246219</v>
+        <v>46.26436625216982</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>42.64299205203813</v>
+        <v>48.18310000589943</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>50.77124194931491</v>
+        <v>55.33097329671355</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>52.41346095560799</v>
+        <v>59.43575252782605</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>33.14211077205156</v>
+        <v>30.92821156455821</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.14032529316344</v>
+        <v>48.74209187806755</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>49.41679628500401</v>
+        <v>56.46303118751362</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>39.571199327363</v>
+        <v>39.68893094426281</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>34.46839939389276</v>
+        <v>41.60566508189825</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>38.6519838105304</v>
+        <v>48.7526148307376</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.52016627731584</v>
+        <v>52.85684348374789</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.85573871124979</v>
+        <v>24.35294188799574</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>37.75336726103995</v>
+        <v>42.16514396530775</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>38.5158589813841</v>
+        <v>49.88487270400722</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.17502497135479</v>
+        <v>14.44026152315464</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.64476792041377</v>
+        <v>47.28159054378582</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.98014089144499</v>
+        <v>53.91949938940812</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>15.74364025835837</v>
+        <v>26.12071133443501</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.951798061205</v>
+        <v>38.59671785464357</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>35.82645298247572</v>
+        <v>45.07005721106864</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>22.61676207466701</v>
+        <v>39.10018880548355</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>41.24435507990948</v>
+        <v>44.29150623571743</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>48.72679604354796</v>
+        <v>49.93504215100907</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>48.30440369786213</v>
+        <v>51.85376066006089</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>53.52712752957131</v>
+        <v>59.00163759823309</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>55.0205729859866</v>
+        <v>63.10644628975368</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.84941405301256</v>
+        <v>34.5986983615409</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>46.00115469381873</v>
+        <v>52.41276851842591</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>48.98871175710809</v>
+        <v>60.13372937519947</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.59404945662708</v>
+        <v>32.26691523070488</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.93126023114913</v>
+        <v>34.18312549480905</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.0435460178448</v>
+        <v>41.32999877714909</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.55567067277576</v>
+        <v>45.43426984381736</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>21.02940532097183</v>
+        <v>16.93082602340567</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.096910753576</v>
+        <v>34.74260618080464</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.86617750867579</v>
+        <v>42.46249325721183</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.19127487171567</v>
+        <v>7.01930346491795</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.51346520186173</v>
+        <v>39.86013118144947</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.27776754314492</v>
+        <v>46.49816228837452</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>16.351655091686</v>
+        <v>18.6986653916206</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.7077844278858</v>
+        <v>31.17432316781631</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>37.99900915487997</v>
+        <v>37.64779377670234</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>19.42979735546324</v>
+        <v>31.67770309803054</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.02011307039731</v>
+        <v>36.86875246844446</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>48.12010924298734</v>
+        <v>42.5124076796881</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>41.56573959716113</v>
+        <v>44.43060230849008</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>47.83692175571294</v>
+        <v>51.57840278109941</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>53.78275634125599</v>
+        <v>55.68325390428745</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>21.18522141402158</v>
+        <v>27.17596372084463</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>40.97814326936214</v>
+        <v>44.9896119631151</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>49.29133833139554</v>
+        <v>52.71073117685867</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.05746995282161</v>
+        <v>-16.64677260922165</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.20653192940003</v>
+        <v>16.18715416997204</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.45740783332309</v>
+        <v>22.82276489352719</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>27.85497364109487</v>
+        <v>-4.966512602591909</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.59013546445545</v>
+        <v>7.502967201018034</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.6511415125672</v>
+        <v>13.97415686335355</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.10976936254775</v>
+        <v>8.005450600955921</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.16278155131299</v>
+        <v>13.19127071550363</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.06805571163357</v>
+        <v>18.83292063366948</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.28300429867339</v>
+        <v>20.74884495534812</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.33997734059357</v>
+        <v>27.89300706431132</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.31765893585677</v>
+        <v>31.99664823496257</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.77683827348183</v>
+        <v>3.499319684847617</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.51815508602228</v>
+        <v>21.30499205166896</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.46772248808682</v>
+        <v>29.02396425939585</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>27.69016363661633</v>
+        <v>-13.53168602061371</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.10005525687028</v>
+        <v>19.30670518282548</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.26200121669301</v>
+        <v>25.94416188202788</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>27.60191367996358</v>
+        <v>-1.85568028439852</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.95222062062608</v>
+        <v>10.61757403698098</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.0443156379138</v>
+        <v>17.0903617725576</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.61095622979539</v>
+        <v>11.12009684845341</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.160041365234</v>
+        <v>16.30901189165743</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.2048331327179</v>
+        <v>-8.968414411162119</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.51591430935159</v>
+        <v>23.86625041239293</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.60992772512814</v>
+        <v>30.50184942217188</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.87201136884628</v>
+        <v>2.713238059144398</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.89725585792184</v>
+        <v>15.18323949640094</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.78924035544162</v>
+        <v>21.65440568909335</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.21301660815176</v>
+        <v>15.68567485471786</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.4260433337999</v>
+        <v>20.87189761211212</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.30174932830775</v>
+        <v>26.51352323347876</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.29920609260883</v>
+        <v>28.42988812924684</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.54792802618315</v>
+        <v>35.57416099652951</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.53135730404959</v>
+        <v>39.67783709735673</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.07848528957185</v>
+        <v>11.17973366106824</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.42616884038212</v>
+        <v>28.98605641078089</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.50662575451725</v>
+        <v>36.70499223364382</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.0339066836857</v>
+        <v>-5.851690940673254</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.43980073148734</v>
+        <v>26.9874383888131</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.57549582204136</v>
+        <v>33.62488341230736</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>27.56612999865385</v>
+        <v>5.825707412288263</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.52692646783024</v>
+        <v>18.29948343843128</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.63520158402722</v>
+        <v>24.77224773423782</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.79253067241457</v>
+        <v>23.99127599399528</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.8555282205094</v>
+        <v>-5.299509497763527</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.46976132724463</v>
+        <v>27.53527551708239</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.62604605495659</v>
+        <v>34.17090346770138</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.66119271843039</v>
+        <v>6.382690577619226</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.81634808468158</v>
+        <v>18.85285130102059</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.02924040500217</v>
+        <v>25.32404262230196</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.91066878926549</v>
+        <v>19.35521976397822</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.38123408691634</v>
+        <v>24.54159559667519</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.45397810601296</v>
+        <v>30.18324309553205</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.38984513445567</v>
+        <v>32.099592796282</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.50602208546873</v>
+        <v>39.24386932455005</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.64176373976185</v>
+        <v>43.34757488819608</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.15102528261815</v>
+        <v>14.84926447464411</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.81548105140872</v>
+        <v>32.65577705725835</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.51036269034195</v>
+        <v>40.37473443783315</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.89725419003042</v>
+        <v>-2.182104518011645</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.27890219338834</v>
+        <v>30.65714501244397</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.59303091640254</v>
+        <v>37.29461898127332</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.44271779315422</v>
+        <v>9.495841513895609</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.12724245060895</v>
+        <v>21.96977683712796</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.63487004792746</v>
+        <v>28.44256626319193</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.67149752992795</v>
+        <v>22.47218475975856</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.46711680961769</v>
+        <v>27.66165559072217</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.70771683625221</v>
+        <v>-12.71857887536382</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.17720722464566</v>
+        <v>20.11570491280147</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.33624092256104</v>
+        <v>26.75145511500071</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.71534754027141</v>
+        <v>-1.037466450530221</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.82918031524033</v>
+        <v>11.43234558840916</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.93080217676841</v>
+        <v>17.90366815126984</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.81608212150331</v>
+        <v>11.93462306771064</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.20650031707964</v>
+        <v>17.12073088910702</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.18672849391816</v>
+        <v>22.76249767370589</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.30093000410497</v>
+        <v>24.67832348320919</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.46179532592203</v>
+        <v>31.82252355485323</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.50958999101494</v>
+        <v>35.92627154466746</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.88138950509422</v>
+        <v>7.428418829371733</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.51186869613961</v>
+        <v>25.23450957339312</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.26475635154602</v>
+        <v>32.9536253021395</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.78698397262578</v>
+        <v>-9.602630283571418</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.269542536524</v>
+        <v>23.23611795822151</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.4503952018004</v>
+        <v>29.87371415841985</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.44122976185689</v>
+        <v>2.074227939409095</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.22369711733712</v>
+        <v>14.54781452823184</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.403299434435</v>
+        <v>21.02073517849535</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.54152682287411</v>
+        <v>15.05013142579039</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.45962796684343</v>
+        <v>20.2393342044908</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.22566544576988</v>
+        <v>21.95202603249882</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.16264489088408</v>
+        <v>23.86837111959042</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.65644161706094</v>
+        <v>31.01501585168173</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.84300859686083</v>
+        <v>35.11966425924518</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.88280469980263</v>
+        <v>6.616993495095496</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.20332007634114</v>
+        <v>24.42784865231127</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.38678048028734</v>
+        <v>32.14828233922188</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.85569428003756</v>
+        <v>-3.295356645189461</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.15482793363432</v>
+        <v>29.5444854894072</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.56660875969484</v>
+        <v>36.18302233630121</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>27.44554343806232</v>
+        <v>8.38348276323168</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.86392316593545</v>
+        <v>20.85832309391222</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.04587231525132</v>
+        <v>27.33221957324409</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>27.66780180396368</v>
+        <v>21.36138160365604</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.22417450923518</v>
+        <v>26.55174627515103</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.68553430954903</v>
+        <v>32.19575465889037</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.17724198859856</v>
+        <v>34.11408419427269</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.9057016198635</v>
+        <v>41.26165611366972</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.95691194337794</v>
+        <v>45.36688452907632</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.66247854220105</v>
+        <v>16.86036748651636</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.09605370440184</v>
+        <v>34.67309064589679</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.32014494048846</v>
+        <v>42.39475646049883</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.01822817539097</v>
+        <v>29.6342658628395</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.75179804316519</v>
+        <v>31.55105148062082</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.1703100280818</v>
+        <v>38.69780697795377</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.41841738092078</v>
+        <v>42.80249033926671</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.12306450255387</v>
+        <v>14.29904461015124</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.98102197929172</v>
+        <v>32.1105502462955</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.93504056699119</v>
+        <v>39.83094757388906</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.09791943552552</v>
+        <v>4.385671910385238</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.51799240211887</v>
+        <v>37.22625218957322</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.00026837112213</v>
+        <v>43.8647773335729</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>27.57766963714912</v>
+        <v>16.06590406352066</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.71580601391567</v>
+        <v>28.54126611189795</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.09873709066042</v>
+        <v>35.0151391270156</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>27.77261756214264</v>
+        <v>29.04427664317157</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.24159607919541</v>
+        <v>34.23504402681206</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.86364815784648</v>
+        <v>39.87902811684799</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.06893076777221</v>
+        <v>41.7977981998736</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.72649478364577</v>
+        <v>48.94548088917171</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>30.1010411943094</v>
+        <v>53.05074424239459</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.49703745981212</v>
+        <v>24.54345222664156</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.54530811575492</v>
+        <v>42.35682587428292</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.76684925854434</v>
+        <v>50.07845531111778</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.2399202532517</v>
+        <v>33.30466733783524</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.57976354231789</v>
+        <v>35.22143770963933</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.81413453294113</v>
+        <v>42.36819685655874</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.2000175514854</v>
+        <v>46.47290968320468</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>27.74679861786361</v>
+        <v>17.96925698714656</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.64603826816989</v>
+        <v>35.78095246791898</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.76886184495963</v>
+        <v>43.50137135557682</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.0158358231025</v>
+        <v>8.055703313982487</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.38756785789494</v>
+        <v>40.89640379755966</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.97890199063479</v>
+        <v>47.53495787065177</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>27.48424262292383</v>
+        <v>19.73648317373513</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.38747424046108</v>
+        <v>32.21200452066606</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.98077910265478</v>
+        <v>38.68590265190679</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>27.89738383922618</v>
+        <v>32.71494817351257</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.94719706723283</v>
+        <v>37.90586864402783</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.86369295132565</v>
+        <v>43.54987460052021</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.15232638781796</v>
+        <v>45.4686294318374</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.41658181537766</v>
+        <v>52.61631576929543</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.02003139880925</v>
+        <v>56.72160858240377</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.81370326835702</v>
+        <v>28.21410959902439</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.97440317482105</v>
+        <v>46.02767308983655</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.43295512668342</v>
+        <v>53.74932407414374</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.80946530542178</v>
+        <v>25.88246522172815</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.20437565378421</v>
+        <v>27.79871171177379</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.4414839621271</v>
+        <v>34.94539439624444</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.6349212465732</v>
+        <v>39.05014963565762</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.63704526084321</v>
+        <v>10.54695471461357</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.57126605840814</v>
+        <v>28.35822828901146</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.63059625531384</v>
+        <v>36.07880551088036</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>27.80482869939908</v>
+        <v>0.6345588593908609</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.41996306816519</v>
+        <v>33.47475804987837</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.04470539459814</v>
+        <v>40.11343437738802</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>27.40938137364223</v>
+        <v>12.31425082423075</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.33569616009272</v>
+        <v>24.78942343704218</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.14134318228047</v>
+        <v>31.26345281670617</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>27.58123401039663</v>
+        <v>25.29227605027759</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.79931491505577</v>
+        <v>30.48292847004441</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.78816179788932</v>
+        <v>36.12705371892233</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.77530587079988</v>
+        <v>38.04528466166724</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.30298890181838</v>
+        <v>45.1928945380611</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.96651398504156</v>
+        <v>49.29822978139774</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>27.53727836276049</v>
+        <v>20.7911885435831</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.68402183982531</v>
+        <v>38.60433013284026</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.53383231714362</v>
+        <v>46.32613947105929</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.27627627729662</v>
+        <v>-10.10637240967433</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.3680075025414</v>
+        <v>22.72790755737858</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.50811727604388</v>
+        <v>29.36359945041218</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.12971151880027</v>
+        <v>1.574575831596828</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.58656094462989</v>
+        <v>14.04450392712092</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.63263018837618</v>
+        <v>20.51581046124354</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.316001841724</v>
+        <v>14.54685125184076</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.96395597177973</v>
+        <v>19.7330990163804</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.89719367605694</v>
+        <v>25.37486421781048</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.39239669012267</v>
+        <v>27.29082091311514</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.41284743613537</v>
+        <v>34.4351370275696</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.39890801851771</v>
+        <v>38.53878714206397</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.72010541989392</v>
+        <v>10.04083787896937</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.56554503120344</v>
+        <v>27.84699484334672</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.17242303121934</v>
+        <v>35.56608149293996</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.00020940935289</v>
+        <v>-6.989610646320305</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.22828307656282</v>
+        <v>25.84913376362172</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.31665983526624</v>
+        <v>32.48667160162202</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.91018564925497</v>
+        <v>4.687083438910488</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.0939478431251</v>
+        <v>17.1607860804369</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.14451764774968</v>
+        <v>23.63369064552776</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.90565601153223</v>
+        <v>17.66317287480492</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.20213872663691</v>
+        <v>22.85251559607937</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.38501442726979</v>
+        <v>-2.427950754132073</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.58874351688898</v>
+        <v>30.40706726050487</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.63946177683142</v>
+        <v>37.04274743759711</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.16560836157563</v>
+        <v>9.254389954222713</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.79510413195101</v>
+        <v>21.72483968877046</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.73033826835703</v>
+        <v>28.19612275082673</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.40351357345888</v>
+        <v>22.22713896821656</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.15448861371557</v>
+        <v>27.41378938023868</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.06962834252769</v>
+        <v>33.05553028300668</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.08553713766758</v>
+        <v>34.97192754742096</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.24565077897942</v>
+        <v>42.11635442046477</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.24219335241593</v>
+        <v>46.22003946350927</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.99698189615163</v>
+        <v>17.72131531098503</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.18531759741943</v>
+        <v>35.52812266337097</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.24770441238502</v>
+        <v>43.24717292553365</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.22020510045454</v>
+        <v>0.6904478982420663</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.4611148829417</v>
+        <v>33.52993043734003</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.54461924756877</v>
+        <v>40.16745659715926</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>27.89762047231067</v>
+        <v>12.36853460408386</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.47314924482047</v>
+        <v>24.84275895532599</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.53392015185652</v>
+        <v>31.31564007815077</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.6376400429785</v>
+        <v>30.5348431733428</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.16694201516611</v>
+        <v>1.240940825254622</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.57091913997819</v>
+        <v>34.0760790297916</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.66201239806955</v>
+        <v>40.71178814669773</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.03475046219412</v>
+        <v>12.92382913495296</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.75074464766902</v>
+        <v>25.39443815455493</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.89990554637374</v>
+        <v>31.86574634357217</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.2322199975121</v>
+        <v>25.89667053862493</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.16104637183803</v>
+        <v>31.08347402497648</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.20132611208195</v>
+        <v>36.72523680406519</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.19076093916135</v>
+        <v>38.64161887228116</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.26693842189724</v>
+        <v>45.78604940608196</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.34511626624375</v>
+        <v>49.8897639110626</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.49131772270121</v>
+        <v>21.39083278380408</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.86550733104391</v>
+        <v>39.19782996787549</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.36447643123087</v>
+        <v>46.91690178603804</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.15980640789727</v>
+        <v>4.360020979424487</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.34750507023221</v>
+        <v>37.19962371827219</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.55977175737021</v>
+        <v>43.83717882271449</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>27.83489454938384</v>
+        <v>16.03865536022297</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.17296528692228</v>
+        <v>28.51303900763062</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.5048836031103</v>
+        <v>34.98594525958632</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.96741124748768</v>
+        <v>29.01531090958147</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.37560523102238</v>
+        <v>34.20520942256726</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.05453410148891</v>
+        <v>-6.178148788602787</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.34960447372427</v>
+        <v>26.65648818752404</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.4409464532515</v>
+        <v>33.29231955800233</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.02897229408229</v>
+        <v>5.503651868471618</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.72841958333682</v>
+        <v>17.97391220096793</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.83675476743255</v>
+        <v>24.44535163395258</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.11284732102666</v>
+        <v>18.47605360533899</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.9920480634253</v>
+        <v>23.6625890775156</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.00413598212713</v>
+        <v>29.30447114394749</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.03615004874293</v>
+        <v>31.2203293251288</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.14114887749703</v>
+        <v>38.36468340255388</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.22343940712408</v>
+        <v>42.46844033482344</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.24853516035467</v>
+        <v>13.96996690743904</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.62205657173328</v>
+        <v>31.77654225001575</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.19289535609125</v>
+        <v>39.49577241849923</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.04490115743946</v>
+        <v>-3.060525023032572</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.33608263855957</v>
+        <v>29.77857642510835</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.447675513434</v>
+        <v>36.41625376290872</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>27.84244266223843</v>
+        <v>8.617021547348852</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.27295688084496</v>
+        <v>21.09105645715115</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.40562157509722</v>
+        <v>27.56409393530137</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>27.86157646592521</v>
+        <v>21.59323733751139</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.39856967315709</v>
+        <v>26.78286779538498</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.23356509983595</v>
+        <v>28.49564497940244</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.17613119513094</v>
+        <v>30.41202240980797</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.46796611560139</v>
+        <v>37.55882114122417</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.56740785203226</v>
+        <v>41.66347847121065</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.01824067418365</v>
+        <v>13.16018695668825</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.20359667494695</v>
+        <v>30.97152673609983</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.30846578042519</v>
+        <v>38.69207481540062</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.13240550430734</v>
+        <v>3.245303966599206</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.30938159297838</v>
+        <v>36.0854992687072</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.53767681373139</v>
+        <v>42.72411726739747</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.83422190396138</v>
+        <v>14.92483169867662</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.05689203299012</v>
+        <v>27.40012030765345</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.14242903977645</v>
+        <v>33.8741336321788</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.97096695088984</v>
+        <v>27.90304273990526</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.28405202660695</v>
+        <v>33.09383505026599</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.52619171899499</v>
+        <v>38.7379586912846</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.16911420894384</v>
+        <v>40.65632059448276</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.60625896144968</v>
+        <v>47.80404650764163</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.57158777218967</v>
+        <v>51.90928385012231</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.90759395031899</v>
+        <v>23.40214610551962</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.14439061946196</v>
+        <v>41.21535385031692</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.25083985620427</v>
+        <v>48.93713407036719</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.77166075278778</v>
+        <v>36.17794828238462</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.59116487488611</v>
+        <v>38.09476623901494</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.8498997558966</v>
+        <v>45.24167573597393</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.99613837854405</v>
+        <v>49.34636801790057</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.24668554536371</v>
+        <v>20.84230153505407</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.75503097537655</v>
+        <v>38.65429179809306</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.73224087453212</v>
+        <v>46.37480351548837</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.29434333165025</v>
+        <v>10.92639595791436</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.54424137783296</v>
+        <v>43.76732940791956</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.83719830318363</v>
+        <v>50.40593570147612</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>27.93792826094078</v>
+        <v>22.60731643780187</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.62081924483379</v>
+        <v>35.08312676925303</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.84376153960203</v>
+        <v>41.55711662714126</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.0913752796369</v>
+        <v>35.58600122052158</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.98051578687002</v>
+        <v>40.7771962478453</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.36544878003728</v>
+        <v>46.42129559314972</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.89656893774155</v>
+        <v>48.34009803832922</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.27359293952021</v>
+        <v>55.48793472227297</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.48741436523805</v>
+        <v>59.59320700081324</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.56967517375913</v>
+        <v>31.08529427983003</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.16693540282807</v>
+        <v>48.89915251748826</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.29343914891288</v>
+        <v>56.62089635734199</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.88035275547945</v>
+        <v>39.84833640886418</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.4524742491381</v>
+        <v>41.7651391182292</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.58779619504704</v>
+        <v>48.91205226463128</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.82734894125383</v>
+        <v>53.01677401121074</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.06354109565073</v>
+        <v>24.51250056374706</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.52275571298181</v>
+        <v>42.32468067004461</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.28955804198172</v>
+        <v>14.59641401610136</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.45630291036759</v>
+        <v>47.43746766918528</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.83005080966706</v>
+        <v>54.07610289093694</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>27.91175310925752</v>
+        <v>26.27788219837012</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.35201795078359</v>
+        <v>38.75385182762207</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.73131674364184</v>
+        <v>45.22786680037282</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.17979420720664</v>
+        <v>39.25665939976014</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.72854521906156</v>
+        <v>44.44800751340804</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.31005011910181</v>
+        <v>50.09212872383389</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.82632314737392</v>
+        <v>52.01091591687933</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.96534572041467</v>
+        <v>59.15875624864046</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.36122732635587</v>
+        <v>63.26405798598856</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.23310722054618</v>
+        <v>34.7559382990718</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.73070694567426</v>
+        <v>52.56998637961217</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.06280916709756</v>
+        <v>60.29175176527897</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.62103637637968</v>
+        <v>32.42611405354151</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.23938488738182</v>
+        <v>34.34239288483676</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.36327132014904</v>
+        <v>41.48922956951654</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.51782312386569</v>
+        <v>45.59399372962403</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.91684072078924</v>
+        <v>17.0901780594809</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.40519988921618</v>
+        <v>34.90193625654379</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.49314464074764</v>
+        <v>42.62262786870841</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.10246640858149</v>
+        <v>7.175249343724001</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.45275194792216</v>
+        <v>40.01580170149387</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.86917749212171</v>
+        <v>46.65455917962086</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.80788144814733</v>
+        <v>18.85562962879433</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.28405637722891</v>
+        <v>31.33125052106575</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.86063311338573</v>
+        <v>37.805396744143</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>27.92241608874859</v>
+        <v>31.83396705802843</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.59760409603608</v>
+        <v>37.02504711770453</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.28500886760477</v>
+        <v>42.66928762260048</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.54739271378043</v>
+        <v>44.58755093083121</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.80956792789617</v>
+        <v>51.73531480196178</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.31087588261062</v>
+        <v>55.84065897056419</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>27.84034307795629</v>
+        <v>27.33299703118703</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.38443782910694</v>
+        <v>45.14662320696087</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.026577768164</v>
+        <v>52.86854694854017</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>18.06042484041714</v>
+        <v>-12.19737657403832</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>13.71570858219728</v>
+        <v>20.63424040213684</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>22.26358052654484</v>
+        <v>27.26887476104096</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>9.867732143720112</v>
+        <v>-0.5178614220342048</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>15.13964459311559</v>
+        <v>11.95096173830828</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>14.03593244615738</v>
+        <v>18.42127964506735</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>9.967539652964998</v>
+        <v>12.45360702580151</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>18.56905944917408</v>
+        <v>17.63932960543789</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>19.76089488479563</v>
+        <v>23.28024206931346</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.63487311567235</v>
+        <v>25.19612152436778</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>20.0923499610372</v>
+        <v>32.33985738032177</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>20.25546415846318</v>
+        <v>36.44280116080645</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>17.65153253338974</v>
+        <v>7.947704738679274</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>11.87624005032001</v>
+        <v>25.75225748397989</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>18.52937862870738</v>
+        <v>33.47015913770727</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.42034136824878</v>
+        <v>-9.076278966446896</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>27.0446530258642</v>
+        <v>23.7598023204471</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>30.06254941607163</v>
+        <v>30.39628229958535</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>17.15071499747764</v>
+        <v>2.59898249183416</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>23.91202697335213</v>
+        <v>15.07158007447199</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.36186800850992</v>
+        <v>21.54349573340292</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>19.18292374989023</v>
+        <v>15.57426501787122</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>30.6570333859605</v>
+        <v>20.76308245554835</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>15.81678716191508</v>
+        <v>-4.519947699733596</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>15.0330103029776</v>
+        <v>28.31240725997386</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>18.33118025068029</v>
+        <v>34.94702989977682</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>6.734743591834675</v>
+        <v>7.160959790573681</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>20.09193268471638</v>
+        <v>19.63030454344519</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>19.21049293057763</v>
+        <v>26.10059897737122</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>6.862126477303864</v>
+        <v>20.13290177572312</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>21.31525115533313</v>
+        <v>25.3190269663352</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>21.11818889841339</v>
+        <v>30.95991513146876</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>21.72468826558778</v>
+        <v>32.876235130271</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>27.19248381708225</v>
+        <v>40.02008173595144</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>27.63896676676479</v>
+        <v>44.12306044080927</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>15.32725517646876</v>
+        <v>15.62718920469493</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>20.02747492317308</v>
+        <v>33.43239228236021</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>20.03601829383703</v>
+        <v>41.15025754810236</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>21.47418901227142</v>
+        <v>-1.397213287821931</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>32.20577602992977</v>
+        <v>31.43960606431281</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.74587986232106</v>
+        <v>38.07607436230185</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>15.60023359270991</v>
+        <v>10.27944066153534</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>37.19356845768631</v>
+        <v>22.75255990750807</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>34.00927632304818</v>
+        <v>29.2244521234974</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>16.28389489680501</v>
+        <v>23.25519683638916</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>42.44228649129467</v>
+        <v>28.4444169445351</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>8.871729643160183</v>
+        <v>-0.85147833345113</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>10.58846171166764</v>
+        <v>31.98099680561748</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>11.33967022355622</v>
+        <v>38.61564838287839</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>5.087435914615316</v>
+        <v>10.8299767143425</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>15.62464221537209</v>
+        <v>23.29948073819426</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>15.07729895382179</v>
+        <v>29.76980029722781</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>5.438216856241464</v>
+        <v>23.80201107187488</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>18.35624787388969</v>
+        <v>28.98828932374218</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>18.08484698331997</v>
+        <v>34.62919936313054</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>18.21805392260554</v>
+        <v>36.54550417444241</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>19.90286205252816</v>
+        <v>43.6893544395688</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>24.11637082991385</v>
+        <v>47.79236260428209</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>-1.804217997341127</v>
+        <v>19.29628441176513</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>7.14886487038849</v>
+        <v>37.10167730556216</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>5.014731758107352</v>
+        <v>44.81956412442426</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>15.71385870452811</v>
+        <v>2.27193751869552</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.74934475682489</v>
+        <v>35.10887705971962</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>31.12582343747872</v>
+        <v>41.74537429954208</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>11.68500252164526</v>
+        <v>13.94913909977904</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.15017747137111</v>
+        <v>26.42241762770814</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>37.92799044907127</v>
+        <v>32.8943349705028</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>18.23380226281491</v>
+        <v>26.92498766492647</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>41.55211928961365</v>
+        <v>32.11436084434084</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>10.10003881034438</v>
+        <v>-8.269722988568763</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>9.024160415064379</v>
+        <v>24.56225096363735</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>13.96922098301208</v>
+        <v>31.19702478586637</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>11.31971421906928</v>
+        <v>3.410644509927376</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>17.49245274831111</v>
+        <v>15.87979987589963</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>15.22020564990593</v>
+        <v>22.35025066831579</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>9.436830203278326</v>
+        <v>16.38223924794672</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>18.77714807444402</v>
+        <v>21.56824950870137</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>18.50489378420316</v>
+        <v>27.20927882594472</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>18.17673044936614</v>
+        <v>29.12505979399182</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>19.2173766446994</v>
+        <v>36.26883360824289</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>18.61056119142909</v>
+        <v>40.3718841965032</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>5.580353365866195</v>
+        <v>11.87626365703536</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>6.275307830605804</v>
+        <v>29.68123474311122</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>8.735006360866347</v>
+        <v>37.39927989952596</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>17.04917109315246</v>
+        <v>-5.147763433847306</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>27.42009283575242</v>
+        <v>27.6886748581816</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>34.16283417331258</v>
+        <v>34.32529432282698</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>12.80685842187829</v>
+        <v>6.528350439301473</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>30.87285633400093</v>
+        <v>19.00128025944266</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>38.54186784451574</v>
+        <v>25.47332881800005</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>18.71021192112909</v>
+        <v>19.50375929307782</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>38.24942106996875</v>
+        <v>24.6928644406021</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>31.32206717065038</v>
+        <v>26.40535886416492</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.58882794645112</v>
+        <v>28.32165894834057</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>37.21494719664087</v>
+        <v>35.46787730092618</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>41.41382558270396</v>
+        <v>39.57182809741167</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>25.89171728255028</v>
+        <v>11.07138979367314</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>30.44920637561258</v>
+        <v>28.88112509339615</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>35.36283550028023</v>
+        <v>36.60048790583633</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>19.32151444891812</v>
+        <v>1.159393134122777</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>25.66704842902421</v>
+        <v>33.99692525262677</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>33.03333445416398</v>
+        <v>40.63448530579106</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>12.92070166055569</v>
+        <v>12.83748791369706</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>20.17823963099664</v>
+        <v>25.31167138934498</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>22.92345374311918</v>
+        <v>31.78469574451574</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>16.86495147416008</v>
+        <v>25.81489197986721</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>27.45961733964221</v>
+        <v>31.00515893647539</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>36.50468910089756</v>
+        <v>36.64842955367524</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>37.77473515216145</v>
+        <v>38.56671384265692</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>50.29995364560312</v>
+        <v>45.7138593036797</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>55.32795988573783</v>
+        <v>49.81839010081447</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>24.37224452227255</v>
+        <v>21.31410580228637</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>32.52740013715717</v>
+        <v>39.12570898794993</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>39.01319444301784</v>
+        <v>46.84630385850713</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>38.89854601193606</v>
+        <v>34.08666907869852</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>44.94030445125068</v>
+        <v>36.00340966405227</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>49.2967113097064</v>
+        <v>43.14973877320804</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>47.27772923919588</v>
+        <v>47.25372451742194</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>23.14912485774434</v>
+        <v>18.75251132040878</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>44.99664050226062</v>
+        <v>36.56289704872384</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>40.25140839719568</v>
+        <v>44.28222349867511</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>22.74694367577361</v>
+        <v>8.839492192663126</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>13.63184014513297</v>
+        <v>20.51897959106944</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>40.37440754702095</v>
+        <v>32.99368474285714</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>41.42811781485295</v>
+        <v>39.4666856307297</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>12.71225167490623</v>
+        <v>33.49685734173173</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>48.01210992074464</v>
+        <v>38.68752697900769</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>47.61212524724799</v>
+        <v>44.33077330024551</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>52.50379610625187</v>
+        <v>46.24949810627541</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>62.51672885144369</v>
+        <v>53.3967543292695</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>61.93738560069107</v>
+        <v>57.50132005806441</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>36.6807156512058</v>
+        <v>28.99626085795492</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>59.9139002389046</v>
+        <v>46.80851448137551</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>61.76629202008834</v>
+        <v>54.52907297075367</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>50.3720934165821</v>
+        <v>37.75663485403859</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>43.81048232398739</v>
+        <v>39.67336020090684</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>54.07505779776115</v>
+        <v>46.81969295818172</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>55.13349956542595</v>
+        <v>50.92370816504561</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>18.692429229208</v>
+        <v>22.42228802222033</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>48.65630760744345</v>
+        <v>40.23286357838029</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>49.828008209564</v>
+        <v>47.95221158400867</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>14.59130572539467</v>
+        <v>12.5090879463867</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>31.60522989710503</v>
+        <v>45.34747834081864</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>36.36458099293468</v>
+        <v>51.98505561123594</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>8.187920739651975</v>
+        <v>24.18912300356137</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>45.03846766571714</v>
+        <v>36.66398743887353</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>47.1384332334823</v>
+        <v>43.13701343956293</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>16.3890134784093</v>
+        <v>37.16709315558651</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>54.79791467942904</v>
+        <v>42.35791586561746</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>60.34931251273174</v>
+        <v>48.00118405045217</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>69.57969909220837</v>
+        <v>49.91989361259826</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>78.72281609934282</v>
+        <v>57.06715348208436</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>70.56187954679372</v>
+        <v>61.17174866788335</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>16.33552436617254</v>
+        <v>32.66648252069731</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>65.96577788409819</v>
+        <v>50.47892597047385</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>68.69474221793148</v>
+        <v>58.19950600325151</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>51.79675833063408</v>
+        <v>30.3352577127022</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>35.67511580819205</v>
+        <v>32.25145922551408</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>42.07485937658777</v>
+        <v>39.39771552604387</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>46.46945602968093</v>
+        <v>43.50177314282374</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>22.10291690990909</v>
+        <v>15.00081073031552</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>46.09180943568701</v>
+        <v>32.81096441123319</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>50.58960291409798</v>
+        <v>40.53047074009797</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>15.82168199417654</v>
+        <v>5.088768372906568</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>34.1073330747418</v>
+        <v>37.92665751399491</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>38.55277027464513</v>
+        <v>44.56435703257367</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>14.53620858738958</v>
+        <v>16.76771563616117</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>47.64485042644243</v>
+        <v>29.24223136426692</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>48.4596056450358</v>
+        <v>35.71538860503782</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>17.65732580202451</v>
+        <v>29.74524606326034</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>56.54422355824673</v>
+        <v>34.93580074268939</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>59.93742241749297</v>
+        <v>40.57918821214494</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>61.79186345771535</v>
+        <v>42.49737393337423</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>74.29873282361119</v>
+        <v>49.64455734758045</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>73.0338578431931</v>
+        <v>53.74919496107285</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>28.94477312936762</v>
+        <v>25.24438651429139</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>71.38996680678052</v>
+        <v>43.0564080940683</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>75.71937439872832</v>
+        <v>50.77714646980181</v>
       </c>
     </row>
   </sheetData>
